--- a/Team-Data/2014-15/2-25-2014-15.xlsx
+++ b/Team-Data/2014-15/2-25-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.789</v>
+        <v>0.786</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
@@ -684,28 +751,28 @@
         <v>37.8</v>
       </c>
       <c r="J2" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
         <v>0.467</v>
       </c>
       <c r="L2" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="N2" t="n">
         <v>0.383</v>
       </c>
       <c r="O2" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P2" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R2" t="n">
         <v>8.6</v>
@@ -720,16 +787,16 @@
         <v>25.6</v>
       </c>
       <c r="V2" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z2" t="n">
         <v>18</v>
@@ -741,10 +808,10 @@
         <v>102.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,10 +823,10 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
@@ -780,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -804,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -813,13 +880,13 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
         <v>7</v>
       </c>
       <c r="BC2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
         <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0.389</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I3" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J3" t="n">
-        <v>88</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L3" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M3" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.331</v>
+        <v>0.328</v>
       </c>
       <c r="O3" t="n">
         <v>15.2</v>
@@ -887,19 +954,19 @@
         <v>20.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R3" t="n">
         <v>11</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T3" t="n">
         <v>43.8</v>
       </c>
       <c r="U3" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V3" t="n">
         <v>14.3</v>
@@ -908,25 +975,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>12</v>
@@ -968,7 +1035,7 @@
         <v>18</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS3" t="n">
         <v>10</v>
@@ -977,10 +1044,10 @@
         <v>13</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -989,19 +1056,19 @@
         <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="n">
         <v>23</v>
       </c>
       <c r="F4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.418</v>
+        <v>0.426</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J4" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
         <v>6.6</v>
@@ -1063,10 +1130,10 @@
         <v>0.321</v>
       </c>
       <c r="O4" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P4" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
         <v>0.746</v>
@@ -1075,13 +1142,13 @@
         <v>10</v>
       </c>
       <c r="S4" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T4" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
         <v>14.3</v>
@@ -1096,10 +1163,10 @@
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB4" t="n">
         <v>96.09999999999999</v>
@@ -1108,13 +1175,13 @@
         <v>-3.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
@@ -1123,10 +1190,10 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1159,7 +1226,7 @@
         <v>21</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
         <v>14</v>
@@ -1171,19 +1238,19 @@
         <v>22</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -1212,46 +1279,46 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
         <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>0.418</v>
+        <v>0.407</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.307</v>
+        <v>0.308</v>
       </c>
       <c r="O5" t="n">
         <v>17.1</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R5" t="n">
         <v>10.2</v>
@@ -1263,7 +1330,7 @@
         <v>43.9</v>
       </c>
       <c r="U5" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V5" t="n">
         <v>11.8</v>
@@ -1275,31 +1342,31 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>18.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>4</v>
@@ -1329,19 +1396,19 @@
         <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
         <v>23</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,13 +1420,13 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
       </c>
       <c r="BA5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
         <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>0.621</v>
+        <v>0.632</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J6" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.443</v>
@@ -1421,19 +1488,19 @@
         <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.787</v>
       </c>
       <c r="R6" t="n">
         <v>12.1</v>
@@ -1445,7 +1512,7 @@
         <v>45.8</v>
       </c>
       <c r="U6" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V6" t="n">
         <v>14.2</v>
@@ -1454,28 +1521,28 @@
         <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
         <v>18.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.6</v>
+        <v>101.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1487,22 +1554,22 @@
         <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1529,7 +1596,7 @@
         <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -1657,13 +1724,13 @@
         <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>28</v>
@@ -1675,7 +1742,7 @@
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1684,13 +1751,13 @@
         <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
@@ -1702,7 +1769,7 @@
         <v>22</v>
       </c>
       <c r="AT7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
         <v>12</v>
@@ -1711,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1840,7 @@
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J8" t="n">
         <v>85.90000000000001</v>
@@ -1785,10 +1852,10 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.357</v>
       </c>
       <c r="O8" t="n">
         <v>16.6</v>
@@ -1797,25 +1864,25 @@
         <v>21.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R8" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>4.8</v>
@@ -1824,16 +1891,16 @@
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.5</v>
+        <v>105.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1854,22 +1921,22 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL8" t="n">
         <v>6</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>7</v>
       </c>
       <c r="AM8" t="n">
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>20</v>
@@ -1878,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
         <v>19</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
-        <v>0.351</v>
+        <v>0.357</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J9" t="n">
-        <v>86.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.428</v>
+        <v>0.429</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M9" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="O9" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P9" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R9" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S9" t="n">
         <v>32.7</v>
       </c>
       <c r="T9" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U9" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
         <v>4.8</v>
@@ -2006,19 +2073,19 @@
         <v>5.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
         <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.5</v>
+        <v>-4.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2027,10 +2094,10 @@
         <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>18</v>
@@ -2054,10 +2121,10 @@
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
@@ -2075,25 +2142,25 @@
         <v>11</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
         <v>16</v>
       </c>
       <c r="BC9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>18</v>
@@ -2215,7 +2282,7 @@
         <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2269,10 +2336,10 @@
         <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>10.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2418,10 +2485,10 @@
         <v>20</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -2501,70 +2568,70 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>84.3</v>
+        <v>84</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
       </c>
       <c r="L12" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="N12" t="n">
         <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.716</v>
+        <v>0.715</v>
       </c>
       <c r="R12" t="n">
         <v>12.3</v>
       </c>
       <c r="S12" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
         <v>43.8</v>
       </c>
       <c r="U12" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V12" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="W12" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
         <v>103.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2579,10 +2646,10 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2612,7 +2679,7 @@
         <v>23</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>13</v>
@@ -2621,19 +2688,19 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>18</v>
@@ -2758,7 +2825,7 @@
         <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2770,7 +2837,7 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2782,10 +2849,10 @@
         <v>24</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
         <v>20</v>
@@ -2800,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2809,7 +2876,7 @@
         <v>23</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2821,7 +2888,7 @@
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="n">
         <v>37</v>
       </c>
       <c r="F14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.638</v>
+        <v>0.649</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,25 +2935,25 @@
         <v>39.3</v>
       </c>
       <c r="J14" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="N14" t="n">
         <v>0.371</v>
       </c>
       <c r="O14" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P14" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q14" t="n">
         <v>0.73</v>
@@ -2895,58 +2962,58 @@
         <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U14" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V14" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="W14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X14" t="n">
         <v>4.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Z14" t="n">
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB14" t="n">
         <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2964,28 +3031,28 @@
         <v>5</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>11</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -3035,25 +3102,25 @@
         <v>55</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" t="n">
-        <v>0.273</v>
+        <v>0.255</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L15" t="n">
         <v>6.7</v>
@@ -3062,55 +3129,55 @@
         <v>19.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="Q15" t="n">
         <v>0.742</v>
       </c>
       <c r="R15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="n">
         <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W15" t="n">
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>4.6</v>
-      </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,49 +3192,49 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>24</v>
       </c>
       <c r="AM15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX15" t="n">
         <v>19</v>
@@ -3176,13 +3243,13 @@
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB15" t="n">
         <v>18</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>17</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="n">
         <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.732</v>
+        <v>0.745</v>
       </c>
       <c r="H16" t="n">
         <v>48.8</v>
@@ -3235,16 +3302,16 @@
         <v>83.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M16" t="n">
         <v>15.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O16" t="n">
         <v>18.4</v>
@@ -3256,10 +3323,10 @@
         <v>0.778</v>
       </c>
       <c r="R16" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S16" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T16" t="n">
         <v>43.1</v>
@@ -3268,10 +3335,10 @@
         <v>22</v>
       </c>
       <c r="V16" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W16" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
@@ -3286,13 +3353,13 @@
         <v>20.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3328,7 +3395,7 @@
         <v>6</v>
       </c>
       <c r="AP16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
@@ -3337,13 +3404,13 @@
         <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3364,10 +3431,10 @@
         <v>12</v>
       </c>
       <c r="BB16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -3396,58 +3463,58 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
         <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>0.446</v>
+        <v>0.436</v>
       </c>
       <c r="H17" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I17" t="n">
         <v>34.5</v>
       </c>
       <c r="J17" t="n">
-        <v>75.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L17" t="n">
         <v>7.1</v>
       </c>
       <c r="M17" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.349</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0.741</v>
       </c>
       <c r="R17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S17" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T17" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="U17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V17" t="n">
         <v>14.8</v>
@@ -3462,19 +3529,19 @@
         <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB17" t="n">
         <v>93.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.1</v>
+        <v>-3.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3486,7 +3553,7 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -3501,16 +3568,16 @@
         <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>22</v>
@@ -3540,16 +3607,16 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -3578,49 +3645,49 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" t="n">
         <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J18" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N18" t="n">
         <v>0.373</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R18" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S18" t="n">
         <v>31.3</v>
@@ -3629,43 +3696,43 @@
         <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V18" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W18" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
         <v>4.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA18" t="n">
         <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF18" t="n">
         <v>13</v>
       </c>
-      <c r="AF18" t="n">
-        <v>12</v>
-      </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>10</v>
@@ -3677,7 +3744,7 @@
         <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL18" t="n">
         <v>20</v>
@@ -3695,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR18" t="n">
         <v>25</v>
@@ -3716,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY18" t="n">
         <v>12</v>
@@ -3725,10 +3792,10 @@
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
         <v>43</v>
       </c>
       <c r="G19" t="n">
-        <v>0.232</v>
+        <v>0.218</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J19" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K19" t="n">
         <v>0.435</v>
@@ -3787,31 +3854,31 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
         <v>0.336</v>
       </c>
       <c r="O19" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P19" t="n">
         <v>25.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R19" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S19" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T19" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V19" t="n">
         <v>15.2</v>
@@ -3826,19 +3893,19 @@
         <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-7.9</v>
+        <v>-8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3850,7 +3917,7 @@
         <v>28</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
@@ -3859,7 +3926,7 @@
         <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3874,7 +3941,7 @@
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
         <v>14</v>
@@ -3889,7 +3956,7 @@
         <v>25</v>
       </c>
       <c r="AU19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV19" t="n">
         <v>26</v>
@@ -3898,22 +3965,22 @@
         <v>8</v>
       </c>
       <c r="AX19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
       </c>
       <c r="BC19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -3960,70 +4027,70 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>83.09999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.359</v>
+        <v>0.355</v>
       </c>
       <c r="O20" t="n">
         <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="W20" t="n">
         <v>6.9</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>15</v>
@@ -4035,52 +4102,52 @@
         <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
       </c>
       <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS20" t="n">
         <v>18</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AT20" t="n">
         <v>10</v>
       </c>
-      <c r="AR20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>15</v>
-      </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>27</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.179</v>
+        <v>0.182</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4145,22 +4212,22 @@
         <v>82.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L21" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M21" t="n">
         <v>20.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.35</v>
+        <v>0.355</v>
       </c>
       <c r="O21" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="P21" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0.768</v>
@@ -4175,13 +4242,13 @@
         <v>39.9</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V21" t="n">
         <v>14.4</v>
       </c>
       <c r="W21" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X21" t="n">
         <v>4</v>
@@ -4193,16 +4260,16 @@
         <v>21.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AB21" t="n">
         <v>92.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.4</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4223,16 +4290,16 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>18</v>
       </c>
       <c r="AM21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4253,16 +4320,16 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV21" t="n">
         <v>16</v>
       </c>
-      <c r="AV21" t="n">
-        <v>17</v>
-      </c>
       <c r="AW21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4277,7 +4344,7 @@
         <v>29</v>
       </c>
       <c r="BC21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -4384,19 +4451,19 @@
         <v>2.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
@@ -4405,7 +4472,7 @@
         <v>8</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4417,7 +4484,7 @@
         <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
         <v>11</v>
@@ -4438,25 +4505,25 @@
         <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA22" t="n">
         <v>19</v>
       </c>
-      <c r="AX22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>17</v>
-      </c>
       <c r="BB22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -4500,43 +4567,43 @@
         <v>0.328</v>
       </c>
       <c r="H23" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I23" t="n">
         <v>37.4</v>
       </c>
       <c r="J23" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O23" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.729</v>
+        <v>0.734</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
         <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
@@ -4548,28 +4615,28 @@
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF23" t="n">
         <v>26</v>
@@ -4578,25 +4645,25 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM23" t="n">
         <v>23</v>
       </c>
-      <c r="AM23" t="n">
-        <v>22</v>
-      </c>
       <c r="AN23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,7 +4672,7 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
@@ -4629,13 +4696,13 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>23</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>24</v>
-      </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="n">
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" t="n">
-        <v>0.211</v>
+        <v>0.214</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,7 +4755,7 @@
         <v>33.1</v>
       </c>
       <c r="J24" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.412</v>
@@ -4700,31 +4767,31 @@
         <v>24.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.316</v>
+        <v>0.314</v>
       </c>
       <c r="O24" t="n">
         <v>16.4</v>
       </c>
       <c r="P24" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="R24" t="n">
         <v>11.4</v>
       </c>
       <c r="S24" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T24" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U24" t="n">
         <v>20.4</v>
       </c>
       <c r="V24" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="W24" t="n">
         <v>9.800000000000001</v>
@@ -4745,13 +4812,13 @@
         <v>90.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.7</v>
+        <v>-10.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4781,10 +4848,10 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4799,7 +4866,7 @@
         <v>22</v>
       </c>
       <c r="AU24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY24" t="n">
         <v>22</v>
@@ -4817,7 +4884,7 @@
         <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="n">
         <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.517</v>
+        <v>0.509</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
@@ -4870,43 +4937,43 @@
         <v>40</v>
       </c>
       <c r="J25" t="n">
-        <v>86.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L25" t="n">
         <v>9.5</v>
       </c>
       <c r="M25" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O25" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P25" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q25" t="n">
         <v>0.78</v>
       </c>
       <c r="R25" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43</v>
+        <v>42.6</v>
       </c>
       <c r="U25" t="n">
         <v>20.8</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W25" t="n">
         <v>8.800000000000001</v>
@@ -4918,19 +4985,19 @@
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB25" t="n">
         <v>106.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4942,7 +5009,7 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4954,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="AL25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM25" t="n">
         <v>5</v>
@@ -4963,28 +5030,28 @@
         <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
         <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -4996,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>16</v>
@@ -5005,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -5034,43 +5101,43 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="n">
         <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.661</v>
+        <v>0.655</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J26" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L26" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
         <v>27.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O26" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P26" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q26" t="n">
         <v>0.797</v>
@@ -5100,22 +5167,22 @@
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.1</v>
+        <v>101.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5130,10 +5197,10 @@
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5169,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
@@ -5187,7 +5254,7 @@
         <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -5216,19 +5283,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" t="n">
         <v>35</v>
       </c>
       <c r="G27" t="n">
-        <v>0.364</v>
+        <v>0.352</v>
       </c>
       <c r="H27" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I27" t="n">
         <v>36.1</v>
@@ -5237,25 +5304,25 @@
         <v>80.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L27" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M27" t="n">
         <v>15.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
       <c r="O27" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="P27" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R27" t="n">
         <v>11.1</v>
@@ -5264,10 +5331,10 @@
         <v>33.9</v>
       </c>
       <c r="T27" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U27" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V27" t="n">
         <v>16.6</v>
@@ -5279,10 +5346,10 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA27" t="n">
         <v>24.6</v>
@@ -5291,19 +5358,19 @@
         <v>100.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.1</v>
+        <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE27" t="n">
         <v>25</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AF27" t="n">
         <v>24</v>
       </c>
-      <c r="AF27" t="n">
-        <v>23</v>
-      </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>6</v>
@@ -5351,25 +5418,25 @@
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -5401,13 +5468,13 @@
         <v>56</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>0.589</v>
+        <v>0.607</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,19 +5483,19 @@
         <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.5</v>
+        <v>83.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N28" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O28" t="n">
         <v>16.4</v>
@@ -5437,7 +5504,7 @@
         <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
         <v>10.1</v>
@@ -5449,10 +5516,10 @@
         <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
@@ -5464,40 +5531,40 @@
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,16 +5573,16 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>24</v>
@@ -5530,7 +5597,7 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5545,7 +5612,7 @@
         <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>4.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>6</v>
@@ -5670,13 +5737,13 @@
         <v>7</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>8</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>13</v>
@@ -5688,7 +5755,7 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5697,7 +5764,7 @@
         <v>5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR29" t="n">
         <v>13</v>
@@ -5706,7 +5773,7 @@
         <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>21</v>
@@ -5724,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
         <v>21</v>
       </c>
       <c r="F30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="n">
-        <v>0.375</v>
+        <v>0.382</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J30" t="n">
-        <v>79.7</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.449</v>
@@ -5789,49 +5856,49 @@
         <v>7.3</v>
       </c>
       <c r="M30" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O30" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P30" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S30" t="n">
         <v>31.3</v>
       </c>
       <c r="T30" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U30" t="n">
         <v>20.1</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z30" t="n">
         <v>19.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB30" t="n">
         <v>95.59999999999999</v>
@@ -5840,19 +5907,19 @@
         <v>-1.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
         <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5870,16 +5937,16 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5888,7 +5955,7 @@
         <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>29</v>
@@ -5897,13 +5964,13 @@
         <v>24</v>
       </c>
       <c r="AW30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
@@ -5944,46 +6011,46 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" t="n">
         <v>33</v>
       </c>
       <c r="F31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>0.569</v>
+        <v>0.579</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J31" t="n">
         <v>82.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.469</v>
+        <v>0.471</v>
       </c>
       <c r="L31" t="n">
         <v>5.9</v>
       </c>
       <c r="M31" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O31" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R31" t="n">
         <v>10.5</v>
@@ -5995,7 +6062,7 @@
         <v>44</v>
       </c>
       <c r="U31" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V31" t="n">
         <v>15.2</v>
@@ -6004,28 +6071,28 @@
         <v>7.2</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
         <v>4.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>12</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6058,13 +6125,13 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
         <v>20</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
@@ -6079,25 +6146,25 @@
         <v>25</v>
       </c>
       <c r="AW31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-25-2014-15</t>
+          <t>2015-02-25</t>
         </is>
       </c>
     </row>
